--- a/biology/Zoologie/Cylindrachetidae/Cylindrachetidae.xlsx
+++ b/biology/Zoologie/Cylindrachetidae/Cylindrachetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cylindrachetidae sont une famille d'insectes orthoptères[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cylindrachetidae sont une famille d'insectes orthoptères.
 Ces caelifères vivent dans le sol.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie et en Patagonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie et en Patagonie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File  (28 juin 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (28 juin 2018) :
 Cylindracheta Kirby, 1906
 Cylindraustralia Günther, 1992
 Cylindroryctes Tindale, 1928</t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) Ermanno Giglio-Tos, « Sulle posizione sistematica del gen Cylindracheta Kirby », Annali del Museo civico di storia naturale di Genova, 3e série, vol. 6, no 14,‎ 1914, p. 81-100 (lire en ligne).</t>
         </is>
